--- a/07_Movilidad/P0712/P0712.xlsx
+++ b/07_Movilidad/P0712/P0712.xlsx
@@ -4202,13 +4202,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4774,8 +4774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4787,16 +4787,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>1327</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8"/>
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
@@ -4868,10 +4868,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>1328</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -4967,10 +4967,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>1329</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -5018,10 +5018,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>1330</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -5285,10 +5285,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>1341</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>1341</v>
       </c>
       <c r="C14" t="str">
